--- a/init-data/hzero-platform/hzero_platform/hzero-platform-oauth.xlsx
+++ b/init-data/hzero-platform/hzero_platform/hzero-platform-oauth.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HZERO-OPEN-PROJECTS\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C088F7-2B3B-4DC8-B923-4F3E32106C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="客户端" sheetId="2" r:id="rId2"/>
-    <sheet name="LDAP" sheetId="3" r:id="rId3"/>
-    <sheet name="安全策略" sheetId="4" r:id="rId4"/>
+    <sheet name="客户端" r:id="rId5" sheetId="2"/>
+    <sheet name="LDAP" r:id="rId6" sheetId="3"/>
+    <sheet name="安全策略" r:id="rId7" sheetId="4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="162">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1997,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2058,6 +2057,15 @@
     <t>time_zone</t>
   </si>
   <si>
+    <t>api_encrypt_flag</t>
+  </si>
+  <si>
+    <t>api_replay_flag</t>
+  </si>
+  <si>
+    <t>password_encrypt_flag</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -2097,6 +2105,42 @@
     <t>360000</t>
   </si>
   <si>
+    <t>hzero-front-lowcode</t>
+  </si>
+  <si>
+    <t>CLCMS</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>client_credentials</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>HZERO-0702</t>
+  </si>
+  <si>
+    <t>hand123</t>
+  </si>
+  <si>
+    <t>GMT+1</t>
+  </si>
+  <si>
+    <t>hzero-interface-15637</t>
+  </si>
+  <si>
+    <t>hitg-nke</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
     <t>LDAP</t>
   </si>
   <si>
@@ -2163,21 +2207,36 @@
     <t>HZERO平台</t>
   </si>
   <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
     <t>389</t>
   </si>
   <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>ou=employee,dc=hand,dc=com</t>
+  </si>
+  <si>
     <t>OpenLDAP</t>
   </si>
   <si>
     <t>person</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
     <t>uid</t>
   </si>
   <si>
+    <t>sn</t>
+  </si>
+  <si>
     <t>mail</t>
   </si>
   <si>
@@ -2272,51 +2331,13 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>27.0.0.1</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ntryUUID</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="48">
     <font>
       <sz val="12"/>
@@ -2436,184 +2457,154 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2754,7 +2745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2806,36 +2797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2851,11 +2812,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3195,36 +3185,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3233,21 +3223,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3358,11 +3348,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3400,19 +3390,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3436,39 +3426,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3478,13 +3468,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" t="s" s="53">
         <v>53</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" t="s" s="54">
         <v>54</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s" s="55">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3529,213 +3519,555 @@
       <c r="T7" t="s">
         <v>69</v>
       </c>
+      <c r="U7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8">
       <c r="E8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
         <v>58</v>
       </c>
       <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="K8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="N8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="H9" t="s">
         <v>76</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
       </c>
       <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="K9" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
         <v>75</v>
       </c>
-      <c r="P9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="H10" t="s">
         <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>72</v>
-      </c>
-      <c r="T9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
       </c>
       <c r="I10" t="s">
         <v>58</v>
       </c>
       <c r="J10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="K10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="N10" t="s">
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" t="s">
         <v>75</v>
       </c>
-      <c r="P10" t="s">
+      <c r="T11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
         <v>76</v>
       </c>
-      <c r="S10" t="s">
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
         <v>76</v>
       </c>
-      <c r="T10" t="s">
+      <c r="K12" t="s">
         <v>77</v>
       </c>
+      <c r="M12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="13">
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s">
         <v>80</v>
       </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="U13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="I11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s">
+        <v>93</v>
+      </c>
+      <c r="U14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
         <v>73</v>
       </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
         <v>75</v>
       </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s">
+        <v>79</v>
+      </c>
+      <c r="T15" t="s">
+        <v>80</v>
+      </c>
+      <c r="U15" t="s">
+        <v>79</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
         <v>76</v>
       </c>
-      <c r="S11" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
         <v>77</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3743,162 +4075,167 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s" s="56">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s" s="57">
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="G7" t="s" s="58">
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="Q7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="R7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="S7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="T7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="U7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="V7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8">
       <c r="E8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>142</v>
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>144</v>
+        <v>121</v>
+      </c>
+      <c r="J8" t="s">
+        <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>123</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8">
-        <v>10</v>
+        <v>125</v>
+      </c>
+      <c r="R8" t="s">
+        <v>126</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
-      </c>
-      <c r="T8" s="62" t="s">
-        <v>145</v>
+        <v>127</v>
+      </c>
+      <c r="T8" t="s">
+        <v>128</v>
       </c>
       <c r="U8" t="s">
-        <v>109</v>
+        <v>128</v>
+      </c>
+      <c r="V8" t="s">
+        <v>129</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3906,170 +4243,168 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s" s="59">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s" s="60">
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="H7" t="s" s="61">
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="N7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" t="s">
+        <v>146</v>
+      </c>
+      <c r="V7" t="s">
+        <v>147</v>
+      </c>
+      <c r="W7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" t="s">
         <v>119</v>
       </c>
-      <c r="O7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T7" t="s">
-        <v>125</v>
-      </c>
-      <c r="U7" t="s">
-        <v>126</v>
-      </c>
-      <c r="V7" t="s">
-        <v>127</v>
-      </c>
-      <c r="W7" t="s">
-        <v>128</v>
-      </c>
-      <c r="X7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8" t="s">
         <v>75</v>
       </c>
-      <c r="X8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>72</v>
-      </c>
       <c r="AC8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>